--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3617.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3617.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.276486764836958</v>
+        <v>1.712061882019043</v>
       </c>
       <c r="B1">
-        <v>2.296024651687933</v>
+        <v>2.859842538833618</v>
       </c>
       <c r="C1">
-        <v>3.158946810465381</v>
+        <v>3.557749271392822</v>
       </c>
       <c r="D1">
-        <v>3.266467772940406</v>
+        <v>1.378337264060974</v>
       </c>
       <c r="E1">
-        <v>0.9274014595975377</v>
+        <v>0.921788215637207</v>
       </c>
     </row>
   </sheetData>
